--- a/doc/log/log_201608040106liujiawei.xlsx
+++ b/doc/log/log_201608040106liujiawei.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="13155" windowHeight="4245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:C7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>日期</t>
   </si>
@@ -67,6 +68,45 @@
   </si>
   <si>
     <t>连接数据库。</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>13:00-17:05</t>
+  </si>
+  <si>
+    <t>创建实体类menu</t>
+  </si>
+  <si>
+    <t>6.20.</t>
+  </si>
+  <si>
+    <t>13:00-17:00</t>
+  </si>
+  <si>
+    <t>商户模块需求</t>
+  </si>
+  <si>
+    <t>dao添加Menu.java</t>
+  </si>
+  <si>
+    <t>dao添加MenuDao.java</t>
+  </si>
+  <si>
+    <t>13:00-16:30</t>
+  </si>
+  <si>
+    <t>dao添加MenuDaoTest.java</t>
+  </si>
+  <si>
+    <t>13:00-16:35</t>
+  </si>
+  <si>
+    <t>13:00-16:25</t>
   </si>
 </sst>
 </file>
@@ -74,12 +114,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,45 +135,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +241,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -154,88 +256,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -248,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,21 +472,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,8 +493,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,7 +502,33 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -505,26 +549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -539,159 +563,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1041,16 +1077,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1128,6 +1164,136 @@
       </c>
       <c r="C7" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>6.19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>6.26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>6.27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>6.28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>6.29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040106liujiawei.xlsx
+++ b/doc/log/log_201608040106liujiawei.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>日期</t>
   </si>
@@ -103,10 +103,28 @@
     <t>dao添加MenuDaoTest.java</t>
   </si>
   <si>
+    <t>service层</t>
+  </si>
+  <si>
     <t>13:00-16:35</t>
   </si>
   <si>
+    <t>web层</t>
+  </si>
+  <si>
     <t>13:00-16:25</t>
+  </si>
+  <si>
+    <t>软件测试说明文档</t>
+  </si>
+  <si>
+    <t>13:00-16:18</t>
+  </si>
+  <si>
+    <t>13:00-16:08</t>
+  </si>
+  <si>
+    <t>13:00-16:15</t>
   </si>
 </sst>
 </file>
@@ -115,8 +133,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -128,23 +146,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,22 +163,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,6 +191,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -204,30 +207,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,16 +252,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,9 +270,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -281,187 +299,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,6 +490,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,16 +536,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,41 +582,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,139 +610,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1077,10 +1101,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1223,7 +1247,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>6.25</v>
+        <v>6.23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1232,69 +1256,113 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>6.26</v>
+        <v>6.24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>6.26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
         <v>6.27</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
         <v>6.28</v>
       </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
         <v>6.29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>7.3</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3">
         <v>7.5</v>
       </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
